--- a/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF78C012-395A-4304-8A66-A99034D01340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAC6898-E22C-4316-BB11-B6D0DEB1A7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43912A0B-7934-4A22-93F8-63C00AE3C60B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6424BBED-4AF4-4ADC-9B9C-3120BDDBC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="350">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera el ruido en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -107,22 +107,22 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>43,12%</t>
+    <t>40,66%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>15 €</t>
@@ -134,19 +134,19 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>62,25%</t>
+    <t>59,34%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>45,18%</t>
+    <t>37,28%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>40,5%</t>
+    <t>38,64%</t>
   </si>
   <si>
     <t>5 €</t>
@@ -155,928 +155,934 @@
     <t>25,08%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>70,84%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1491,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91C5BF-BF26-493D-A841-1915A9B73857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD91A7BA-97CE-467D-AA67-01F5B1C19FEE}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2769,13 +2775,13 @@
         <v>81809</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2849,13 @@
         <v>1890</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2858,13 +2864,13 @@
         <v>461</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2873,13 +2879,13 @@
         <v>2351</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,28 +2900,28 @@
         <v>658</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2924,13 +2930,13 @@
         <v>658</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,37 +2957,37 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,14 +3002,14 @@
         <v>380</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3026,13 +3032,13 @@
         <v>380</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,14 +3053,14 @@
         <v>888</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3077,13 +3083,13 @@
         <v>888</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,37 +3110,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3155,13 @@
         <v>878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3164,13 +3170,13 @@
         <v>3265</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3179,13 +3185,13 @@
         <v>4143</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3206,13 @@
         <v>451</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3215,13 +3221,13 @@
         <v>1225</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3230,13 +3236,13 @@
         <v>1676</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3257,13 @@
         <v>7855</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -3266,13 +3272,13 @@
         <v>7079</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -3281,13 +3287,13 @@
         <v>14935</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>17491</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -3317,13 +3323,13 @@
         <v>11026</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -3332,13 +3338,13 @@
         <v>28517</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3359,13 @@
         <v>101803</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H38" s="7">
         <v>107</v>
@@ -3368,13 +3374,13 @@
         <v>66363</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>249</v>
@@ -3383,13 +3389,13 @@
         <v>168167</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3451,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3457,13 +3463,13 @@
         <v>985</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -3472,13 +3478,13 @@
         <v>1162</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3487,13 +3493,13 @@
         <v>2147</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3514,13 @@
         <v>734</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3523,13 +3529,13 @@
         <v>1586</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3538,13 +3544,13 @@
         <v>2319</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,37 +3571,37 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,37 +3622,37 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3667,13 @@
         <v>931</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3676,13 +3682,13 @@
         <v>703</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3691,13 +3697,13 @@
         <v>1634</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3718,13 @@
         <v>1790</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -3727,13 +3733,13 @@
         <v>2045</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M45" s="7">
         <v>5</v>
@@ -3742,13 +3748,13 @@
         <v>3835</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3769,13 @@
         <v>3063</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3778,13 +3784,13 @@
         <v>2578</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -3793,13 +3799,13 @@
         <v>5641</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3820,13 @@
         <v>3123</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3829,13 +3835,13 @@
         <v>1248</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M47" s="7">
         <v>7</v>
@@ -3844,13 +3850,13 @@
         <v>4371</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3871,13 @@
         <v>7379</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -3880,13 +3886,13 @@
         <v>6199</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M48" s="7">
         <v>18</v>
@@ -3895,13 +3901,13 @@
         <v>13577</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3922,13 @@
         <v>7289</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H49" s="7">
         <v>9</v>
@@ -3931,13 +3937,13 @@
         <v>6477</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M49" s="7">
         <v>20</v>
@@ -3946,13 +3952,13 @@
         <v>13766</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3973,13 @@
         <v>57996</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H50" s="7">
         <v>71</v>
@@ -3982,13 +3988,13 @@
         <v>57885</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M50" s="7">
         <v>149</v>
@@ -3997,13 +4003,13 @@
         <v>115881</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4065,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4071,28 +4077,28 @@
         <v>928</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4101,13 +4107,13 @@
         <v>928</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,14 +4128,14 @@
         <v>822</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4152,7 +4158,7 @@
         <v>822</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
@@ -4173,7 +4179,7 @@
         <v>928</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -4194,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -4203,7 +4209,7 @@
         <v>928</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
@@ -4245,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4281,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -4290,13 +4296,13 @@
         <v>749</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -4311,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4332,13 @@
         <v>1803</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
@@ -4341,13 +4347,13 @@
         <v>1411</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="M57" s="7">
         <v>4</v>
@@ -4356,13 +4362,13 @@
         <v>3215</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4383,13 @@
         <v>2538</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4392,13 +4398,13 @@
         <v>785</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4407,13 +4413,13 @@
         <v>3323</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4449,13 @@
         <v>1122</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -4458,13 +4464,13 @@
         <v>1122</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4485,13 @@
         <v>1204</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -4500,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4509,13 +4515,13 @@
         <v>1950</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4536,13 @@
         <v>8596</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H61" s="7">
         <v>21</v>
@@ -4545,13 +4551,13 @@
         <v>13870</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M61" s="7">
         <v>35</v>
@@ -4560,13 +4566,13 @@
         <v>22465</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4587,13 @@
         <v>68538</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H62" s="7">
         <v>100</v>
@@ -4596,13 +4602,13 @@
         <v>71999</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M62" s="7">
         <v>191</v>
@@ -4611,13 +4617,13 @@
         <v>140536</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4691,13 @@
         <v>3802</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H64" s="7">
         <v>3</v>
@@ -4700,13 +4706,13 @@
         <v>1624</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="M64" s="7">
         <v>7</v>
@@ -4718,10 +4724,10 @@
         <v>246</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4742,13 @@
         <v>2215</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
@@ -4751,13 +4757,13 @@
         <v>1586</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -4766,13 +4772,13 @@
         <v>3800</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4793,13 @@
         <v>928</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4808,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4817,13 +4823,13 @@
         <v>928</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4844,13 @@
         <v>380</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4853,13 +4859,13 @@
         <v>398</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4868,13 +4874,13 @@
         <v>779</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4895,13 @@
         <v>3885</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -4904,13 +4910,13 @@
         <v>1452</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="M68" s="7">
         <v>6</v>
@@ -4925,7 +4931,7 @@
         <v>309</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4946,13 @@
         <v>3594</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H69" s="7">
         <v>5</v>
@@ -4955,13 +4961,13 @@
         <v>3456</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M69" s="7">
         <v>9</v>
@@ -4970,13 +4976,13 @@
         <v>7050</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,10 +5000,10 @@
         <v>70</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="H70" s="7">
         <v>9</v>
@@ -5006,13 +5012,13 @@
         <v>8188</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="L70" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M70" s="7">
         <v>20</v>
@@ -5021,13 +5027,13 @@
         <v>18378</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5048,13 @@
         <v>3574</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>321</v>
+        <v>120</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H71" s="7">
         <v>7</v>
@@ -5057,13 +5063,13 @@
         <v>3975</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -5072,13 +5078,13 @@
         <v>7549</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P71" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,10 +5099,10 @@
         <v>21973</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>326</v>
@@ -5108,13 +5114,13 @@
         <v>15800</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M72" s="7">
         <v>55</v>
@@ -5123,13 +5129,13 @@
         <v>37773</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5150,13 @@
         <v>41850</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H73" s="7">
         <v>65</v>
@@ -5159,10 +5165,10 @@
         <v>40557</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>336</v>
@@ -5177,10 +5183,10 @@
         <v>337</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5201,13 @@
         <v>278687</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="H74" s="7">
         <v>351</v>
@@ -5210,13 +5216,13 @@
         <v>238977</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M74" s="7">
         <v>733</v>
@@ -5225,13 +5231,13 @@
         <v>517663</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5293,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAC6898-E22C-4316-BB11-B6D0DEB1A7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20BBC90-EC74-431D-915E-68AB08CF4B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6424BBED-4AF4-4ADC-9B9C-3120BDDBC9EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11D7A257-4C95-4013-8FF0-1FA684F23987}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="324">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera el ruido en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -77,13 +77,10 @@
     <t>0%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>50 €</t>
@@ -95,994 +92,919 @@
     <t>35 €</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>30 €</t>
   </si>
   <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
     <t>25 €</t>
   </si>
   <si>
     <t>20 €</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>15 €</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>10 €</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1497,8 +1419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD91A7BA-97CE-467D-AA67-01F5B1C19FEE}">
-  <dimension ref="A1:Q76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7299BBFA-B797-4E81-9C6D-68FDD9DFCC21}">
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1642,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1657,13 +1579,13 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1693,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1708,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1744,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1759,28 +1681,28 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>405</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1795,28 +1717,28 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1834,40 +1756,40 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1897,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1912,79 +1834,79 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>765</v>
+        <v>1546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1561</v>
+        <v>4023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>2326</v>
+        <v>5568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1999,175 +1921,175 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1515</v>
+        <v>1827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>835</v>
+        <v>6079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>2350</v>
+        <v>7906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>2153</v>
+        <v>8798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>2152</v>
+        <v>17297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>4151</v>
+        <v>41903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>7119</v>
+        <v>51361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="N14" s="7">
-        <v>11270</v>
+        <v>93263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,108 +2098,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>8584</v>
+        <v>54859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>9516</v>
+        <v>71520</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="N15" s="7">
-        <v>18099</v>
+        <v>126379</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2292,43 +2214,43 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2343,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2358,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2373,13 +2295,13 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2394,94 +2316,94 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>1145</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1145</v>
+        <v>937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2496,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2511,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2526,262 +2448,262 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2945</v>
+        <v>3204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2945</v>
+        <v>4129</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>380</v>
+        <v>1832</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>4020</v>
+        <v>7167</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>941</v>
+        <v>8102</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N24" s="7">
-        <v>4961</v>
+        <v>15269</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>6322</v>
+        <v>10374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>9184</v>
+        <v>18591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>15506</v>
+        <v>28965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7">
-        <v>46198</v>
+        <v>65219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="I26" s="7">
-        <v>35610</v>
+        <v>103469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="N26" s="7">
-        <v>81809</v>
+        <v>168688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,54 +2712,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7">
-        <v>60631</v>
+        <v>87786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="I27" s="7">
-        <v>46513</v>
+        <v>135607</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="N27" s="7">
-        <v>107144</v>
+        <v>223393</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2846,103 +2768,103 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1890</v>
+        <v>1138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>461</v>
+        <v>1027</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>2351</v>
+        <v>2165</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1538</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
-        <v>658</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>658</v>
+        <v>2304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2957,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2972,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2987,28 +2909,28 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3023,379 +2945,379 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>888</v>
+        <v>1773</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>3841</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>878</v>
+        <v>2546</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>3265</v>
+        <v>3233</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N34" s="7">
-        <v>4143</v>
+        <v>5779</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>451</v>
+        <v>1276</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>1225</v>
+        <v>3580</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7">
-        <v>1676</v>
+        <v>4856</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="7">
-        <v>7855</v>
+        <v>6197</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" s="7">
-        <v>7079</v>
+        <v>8049</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N36" s="7">
-        <v>14935</v>
+        <v>14245</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C37" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>17491</v>
+        <v>6204</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="H37" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>11026</v>
+        <v>7339</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>28517</v>
+        <v>13543</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D38" s="7">
-        <v>101803</v>
+        <v>78201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="H38" s="7">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I38" s="7">
-        <v>66363</v>
+        <v>62581</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="M38" s="7">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="N38" s="7">
-        <v>168167</v>
+        <v>140782</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,78 +3326,78 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7">
-        <v>132295</v>
+        <v>99918</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H39" s="7">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="I39" s="7">
-        <v>89420</v>
+        <v>89372</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M39" s="7">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="N39" s="7">
-        <v>221716</v>
+        <v>189290</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="D40" s="7">
-        <v>985</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="7">
-        <v>2</v>
-      </c>
       <c r="I40" s="7">
-        <v>1162</v>
+        <v>975</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>167</v>
@@ -3484,79 +3406,79 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>2147</v>
+        <v>975</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="7">
-        <v>734</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2</v>
-      </c>
       <c r="I41" s="7">
-        <v>1586</v>
+        <v>853</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="M41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>2319</v>
+        <v>853</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3571,43 +3493,43 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3622,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3637,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3652,364 +3574,364 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>931</v>
+        <v>736</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>703</v>
+        <v>970</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>1634</v>
+        <v>1706</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
       </c>
       <c r="D45" s="7">
-        <v>1790</v>
+        <v>1401</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="7">
-        <v>2045</v>
+        <v>1887</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M45" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" s="7">
-        <v>3835</v>
+        <v>3288</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>3063</v>
+        <v>774</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="7">
+        <v>3225</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M46" s="7">
         <v>3</v>
       </c>
-      <c r="I46" s="7">
-        <v>2578</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M46" s="7">
-        <v>7</v>
-      </c>
       <c r="N46" s="7">
-        <v>5641</v>
+        <v>3998</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>3123</v>
+        <v>1063</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M47" s="7">
         <v>2</v>
       </c>
-      <c r="I47" s="7">
-        <v>1248</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M47" s="7">
-        <v>7</v>
-      </c>
       <c r="N47" s="7">
-        <v>4371</v>
+        <v>1063</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>7379</v>
+        <v>739</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="H48" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>6199</v>
+        <v>1206</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M48" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N48" s="7">
-        <v>13577</v>
+        <v>1945</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C49" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D49" s="7">
-        <v>7289</v>
+        <v>12913</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="H49" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I49" s="7">
-        <v>6477</v>
+        <v>8676</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M49" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N49" s="7">
-        <v>13766</v>
+        <v>21589</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C50" s="7">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7">
-        <v>57996</v>
+        <v>71354</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H50" s="7">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I50" s="7">
-        <v>57885</v>
+        <v>70883</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M50" s="7">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="N50" s="7">
-        <v>115881</v>
+        <v>142237</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,612 +3940,612 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D51" s="7">
-        <v>83289</v>
+        <v>88980</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H51" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I51" s="7">
-        <v>79883</v>
+        <v>89650</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M51" s="7">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N51" s="7">
-        <v>163172</v>
+        <v>178630</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="7">
-        <v>928</v>
+        <v>1599</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>4026</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="M52" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N52" s="7">
-        <v>928</v>
+        <v>5626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7">
-        <v>822</v>
+        <v>1538</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" s="7">
-        <v>822</v>
+        <v>3855</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H54" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="7">
-        <v>928</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
       </c>
       <c r="N54" s="7">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="7">
-        <v>921</v>
+        <v>1546</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="7">
-        <v>749</v>
+        <v>4430</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M56" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N56" s="7">
-        <v>1670</v>
+        <v>5976</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" s="7">
-        <v>1803</v>
+        <v>3408</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="H57" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" s="7">
-        <v>1411</v>
+        <v>3720</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="M57" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N57" s="7">
-        <v>3215</v>
+        <v>7128</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D58" s="7">
-        <v>2538</v>
+        <v>8069</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I58" s="7">
-        <v>785</v>
+        <v>11406</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M58" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N58" s="7">
-        <v>3323</v>
+        <v>19475</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I59" s="7">
-        <v>1122</v>
+        <v>4050</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M59" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N59" s="7">
-        <v>1122</v>
+        <v>8130</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C60" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D60" s="7">
-        <v>1204</v>
+        <v>15930</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="H60" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I60" s="7">
-        <v>746</v>
+        <v>23435</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M60" s="7">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="N60" s="7">
-        <v>1950</v>
+        <v>39365</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C61" s="7">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D61" s="7">
-        <v>8596</v>
+        <v>38289</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H61" s="7">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I61" s="7">
-        <v>13870</v>
+        <v>43105</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M61" s="7">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="N61" s="7">
-        <v>22465</v>
+        <v>81394</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C62" s="7">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="D62" s="7">
-        <v>68538</v>
+        <v>256677</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="H62" s="7">
-        <v>100</v>
+        <v>382</v>
       </c>
       <c r="I62" s="7">
-        <v>71999</v>
+        <v>288294</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M62" s="7">
-        <v>191</v>
+        <v>733</v>
       </c>
       <c r="N62" s="7">
-        <v>140536</v>
+        <v>544970</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,676 +4554,61 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>115</v>
+        <v>468</v>
       </c>
       <c r="D63" s="7">
-        <v>86278</v>
+        <v>331543</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H63" s="7">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="I63" s="7">
-        <v>90681</v>
+        <v>386149</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M63" s="7">
-        <v>243</v>
+        <v>979</v>
       </c>
       <c r="N63" s="7">
-        <v>176959</v>
+        <v>717691</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="7">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3802</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H64" s="7">
-        <v>3</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1624</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M64" s="7">
-        <v>7</v>
-      </c>
-      <c r="N64" s="7">
-        <v>5426</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="7">
-        <v>3</v>
-      </c>
-      <c r="D65" s="7">
-        <v>2215</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H65" s="7">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1586</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M65" s="7">
-        <v>5</v>
-      </c>
-      <c r="N65" s="7">
-        <v>3800</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7">
-        <v>928</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M66" s="7">
-        <v>1</v>
-      </c>
-      <c r="N66" s="7">
-        <v>928</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7">
-        <v>380</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H67" s="7">
-        <v>1</v>
-      </c>
-      <c r="I67" s="7">
-        <v>398</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M67" s="7">
-        <v>2</v>
-      </c>
-      <c r="N67" s="7">
-        <v>779</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="7">
-        <v>4</v>
-      </c>
-      <c r="D68" s="7">
-        <v>3885</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H68" s="7">
-        <v>2</v>
-      </c>
-      <c r="I68" s="7">
-        <v>1452</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M68" s="7">
-        <v>6</v>
-      </c>
-      <c r="N68" s="7">
-        <v>5337</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="7">
-        <v>4</v>
-      </c>
-      <c r="D69" s="7">
-        <v>3594</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H69" s="7">
-        <v>5</v>
-      </c>
-      <c r="I69" s="7">
-        <v>3456</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M69" s="7">
-        <v>9</v>
-      </c>
-      <c r="N69" s="7">
-        <v>7050</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="7">
-        <v>11</v>
-      </c>
-      <c r="D70" s="7">
-        <v>10190</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H70" s="7">
-        <v>9</v>
-      </c>
-      <c r="I70" s="7">
-        <v>8188</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M70" s="7">
-        <v>20</v>
-      </c>
-      <c r="N70" s="7">
-        <v>18378</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="7">
-        <v>6</v>
-      </c>
-      <c r="D71" s="7">
-        <v>3574</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H71" s="7">
-        <v>7</v>
-      </c>
-      <c r="I71" s="7">
-        <v>3975</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M71" s="7">
-        <v>13</v>
-      </c>
-      <c r="N71" s="7">
-        <v>7549</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q71" s="7" t="s">
+      <c r="A64" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="7">
-        <v>32</v>
-      </c>
-      <c r="D72" s="7">
-        <v>21973</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H72" s="7">
-        <v>23</v>
-      </c>
-      <c r="I72" s="7">
-        <v>15800</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M72" s="7">
-        <v>55</v>
-      </c>
-      <c r="N72" s="7">
-        <v>37773</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="7">
-        <v>63</v>
-      </c>
-      <c r="D73" s="7">
-        <v>41850</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H73" s="7">
-        <v>65</v>
-      </c>
-      <c r="I73" s="7">
-        <v>40557</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M73" s="7">
-        <v>128</v>
-      </c>
-      <c r="N73" s="7">
-        <v>82407</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="7">
-        <v>382</v>
-      </c>
-      <c r="D74" s="7">
-        <v>278687</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H74" s="7">
-        <v>351</v>
-      </c>
-      <c r="I74" s="7">
-        <v>238977</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M74" s="7">
-        <v>733</v>
-      </c>
-      <c r="N74" s="7">
-        <v>517663</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7">
-        <v>511</v>
-      </c>
-      <c r="D75" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H75" s="7">
-        <v>468</v>
-      </c>
-      <c r="I75" s="7">
-        <v>316014</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M75" s="7">
-        <v>979</v>
-      </c>
-      <c r="N75" s="7">
-        <v>687090</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>349</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A51"/>
     <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A64:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
